--- a/COCOMO II/Estimacion_COCOMO_II_G4(1).xlsx
+++ b/COCOMO II/Estimacion_COCOMO_II_G4(1).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Concepto</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>Suma de Factores de Escala (SF)</t>
-  </si>
-  <si>
-    <t>º</t>
   </si>
   <si>
     <t>Exponente (E)</t>
@@ -483,13 +480,13 @@
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>9</v>
+      <c r="B6" s="4">
+        <v>3.0</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2">
         <v>1.06</v>
@@ -497,21 +494,21 @@
     </row>
     <row r="8" ht="31.5" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2">
         <v>1.0</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1"/>
